--- a/策划案/文明/文明.xlsx
+++ b/策划案/文明/文明.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
-    <sheet name="系统概述" sheetId="71" r:id="rId2"/>
-    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId3"/>
+    <sheet name="游戏架构" sheetId="72" r:id="rId2"/>
+    <sheet name="系统概述" sheetId="71" r:id="rId3"/>
+    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="寄灵人">#REF!</definedName>
@@ -721,6 +722,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,6 +766,15 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,35 +784,9 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Grid" xfId="4"/>
@@ -949,23 +950,23 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>691284</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -978,8 +979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5448301"/>
-          <a:ext cx="3320184" cy="5905500"/>
+          <a:off x="0" y="5448300"/>
+          <a:ext cx="2381250" cy="4235451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1272,12 +1273,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1286,10 +1287,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1300,26 +1301,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1328,10 +1329,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1340,151 +1341,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1497,12 +1494,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -1528,78 +1529,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="3.125" style="39" customWidth="1"/>
-    <col min="8" max="26" width="12.625" style="39" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="39"/>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="18" customWidth="1"/>
+    <col min="8" max="26" width="12.625" style="18" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1609,7 +1629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD223"/>
   <sheetViews>
@@ -1624,37 +1644,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
